--- a/data/trans_dic/P44A$otras-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44A$otras-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,75; 54,4</t>
+          <t>12,79; 55,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,66; 55,86</t>
+          <t>19,23; 54,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,26</t>
+          <t>0,0; 3,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 47,3</t>
+          <t>6,07; 46,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,97; 62,19</t>
+          <t>20,95; 62,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,16</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,08; 41,34</t>
+          <t>10,1; 40,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,66; 51,03</t>
+          <t>24,44; 51,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,28</t>
+          <t>0,0; 26,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 19,53</t>
+          <t>2,14; 20,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 2,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,89; 56,35</t>
+          <t>20,87; 54,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,27; 34,15</t>
+          <t>6,28; 35,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,66</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,02; 36,26</t>
+          <t>15,39; 37,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,39; 21,83</t>
+          <t>5,73; 21,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,93; 47,66</t>
+          <t>4,34; 43,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,24; 43,2</t>
+          <t>9,89; 43,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,8</t>
+          <t>0,0; 4,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 52,84</t>
+          <t>16,37; 53,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 39,46</t>
+          <t>4,96; 39,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,17</t>
+          <t>0,0; 6,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,67; 41,62</t>
+          <t>14,67; 42,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,78; 35,03</t>
+          <t>11,02; 34,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,79</t>
+          <t>0,33; 3,93</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 30,14</t>
+          <t>6,84; 31,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,53; 39,8</t>
+          <t>16,52; 39,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,43; 60,5</t>
+          <t>23,76; 61,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,68; 47,59</t>
+          <t>14,82; 49,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,42; 37,59</t>
+          <t>15,21; 37,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,51; 37,89</t>
+          <t>18,23; 38,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,48; 25,45</t>
+          <t>9,37; 24,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,79; 30,59</t>
+          <t>16,66; 30,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,08</t>
+          <t>0,07; 1,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,5; 44,25</t>
+          <t>25,06; 44,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,16; 35,65</t>
+          <t>17,96; 34,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,17</t>
+          <t>0,16; 1,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,54; 32,02</t>
+          <t>18,96; 31,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,02; 29,64</t>
+          <t>19,62; 30,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,97</t>
+          <t>0,16; 0,89</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado otra prueba para detectar cáncer de cólon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10929</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10107</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7205</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21036</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1944; 8438</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5940; 16893</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3225</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>923; 7052</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5355; 16007</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1894</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3070; 12196</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13797; 29114</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3178</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2158</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2902</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1768</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13658</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6155</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15816</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9057</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2182</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6925</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>847; 8170</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7893</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7590; 20000</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2114; 11859</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2084</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9655; 23469</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4194; 15691</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6145</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5361</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7233</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3318</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1347</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14293</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10550</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2370</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1144; 11336</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3045; 13420</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5038</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4326; 14244</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1008; 7930</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4480</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7744; 22677</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5630; 17612</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>595; 7037</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6176</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15361</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11686</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10677</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17862</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26039</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2834; 12926</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9666; 23222</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1385</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6881; 17890</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5423; 18291</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1080</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10705; 26729</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17334; 36366</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1220</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>17892</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>36425</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3368</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>37283</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>30257</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2131</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>55176</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>66682</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5499</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10251; 27241</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>26601; 47997</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>509; 8172</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26798; 47477</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>20859; 40485</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>747; 5927</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>41016; 69024</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>54103; 83751</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2053; 11182</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>